--- a/InputData/dist-heat/EoCtUH/Efficiency of Conversion to Usable Heat.xlsx
+++ b/InputData/dist-heat/EoCtUH/Efficiency of Conversion to Usable Heat.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\dist-heat\EoCtUH\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="EoCtUH" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -75,16 +80,16 @@
     <t>EoCtUH Efficiency of Conversion to Usable Heat</t>
   </si>
   <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
     <t>District heat</t>
+  </si>
+  <si>
+    <t>Efficiency (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -155,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -167,6 +172,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -215,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,7 +258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -644,7 +652,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -652,14 +662,14 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5">
         <f>Data!A6</f>
